--- a/config.xlsx
+++ b/config.xlsx
@@ -11,6 +11,7 @@
     <sheet name="gridnodes" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="actors" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="policies" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="contracts" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1235,4 +1236,185 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dataclassname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contract_scope</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actor_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>com1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>com2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>com3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>com4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GOPACS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRIDOPERATOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hol1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>